--- a/1_semester/Support_and_testing_of_software_modules/Lab1/В1_КОД 09.02.07-2-2024-БУ/В1_Ресурсы/B1_import_БытСервис/Комментарии/inputDataComments.xlsx
+++ b/1_semester/Support_and_testing_of_software_modules/Lab1/В1_КОД 09.02.07-2-2024-БУ/В1_Ресурсы/B1_import_БытСервис/Комментарии/inputDataComments.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikpl\Desktop\Ресурсы\B1_БытСервис\Комментарии\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ВКИ\VKI_Course3\1_semester\Support_and_testing_of_software_modules\Lab1\В1_КОД 09.02.07-2-2024-БУ\В1_Ресурсы\B1_import_БытСервис\Комментарии\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D337B9B-717E-4B29-B7F8-30EDB125FAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4932" yWindow="2628" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Work" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -50,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,23 +404,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -430,7 +434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -444,7 +448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -458,7 +462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -472,7 +476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -486,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
